--- a/src/ExcelFile/TransportTemplate/TemplateImportTransport.xlsx
+++ b/src/ExcelFile/TransportTemplate/TemplateImportTransport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,9 +44,6 @@
     <t>Tên Tàu</t>
   </si>
   <si>
-    <t>Mã Cung Đường</t>
-  </si>
-  <si>
     <t>Tổng Khối Lượng (Đơn Vị Tấn)</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>Thời Gian Lấy/Trả Rỗng</t>
   </si>
   <si>
-    <t>Điểm Lấy/Trả Rỗng</t>
-  </si>
-  <si>
     <t>Thời Gian Hạn Lệnh/CUT OFF</t>
   </si>
   <si>
@@ -122,9 +116,6 @@
     <t>Tau</t>
   </si>
   <si>
-    <t>MaCungDuong</t>
-  </si>
-  <si>
     <t>TongKhoiLuong</t>
   </si>
   <si>
@@ -140,9 +131,6 @@
     <t>MaLoaiPhuongTien</t>
   </si>
   <si>
-    <t>DiemLayTraRong</t>
-  </si>
-  <si>
     <t>KhoiLuong</t>
   </si>
   <si>
@@ -197,9 +185,6 @@
     <t>CUS00001</t>
   </si>
   <si>
-    <t>CD00000001</t>
-  </si>
-  <si>
     <t>Normal</t>
   </si>
   <si>
@@ -212,16 +197,31 @@
     <t>MEA</t>
   </si>
   <si>
-    <t>KHSDWDWDq</t>
-  </si>
-  <si>
-    <t>SUP00001</t>
-  </si>
-  <si>
-    <t>GVMBGKBFBK</t>
-  </si>
-  <si>
     <t>345345345989</t>
+  </si>
+  <si>
+    <t>DiemDongHang</t>
+  </si>
+  <si>
+    <t>DiemHaHang</t>
+  </si>
+  <si>
+    <t>Điểm Đóng Hàng</t>
+  </si>
+  <si>
+    <t>Điểm Hạ Hàng</t>
+  </si>
+  <si>
+    <t>DiemTraRong</t>
+  </si>
+  <si>
+    <t>DiemLayRong</t>
+  </si>
+  <si>
+    <t>Điểm Trả Rỗng</t>
+  </si>
+  <si>
+    <t>Điểm Lấy Rỗng</t>
   </si>
 </sst>
 </file>
@@ -315,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -336,6 +336,10 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB3"/>
+  <dimension ref="A1:AD8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,118 +633,126 @@
     <col min="3" max="3" width="19.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10" style="8" customWidth="1"/>
-    <col min="22" max="22" width="22" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.85546875" style="8" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="23.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10" style="8" customWidth="1"/>
+    <col min="24" max="24" width="22" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.85546875" style="8" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12" style="8" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="J1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="K1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="L1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="M1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="N1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="Q1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="R1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" s="11" t="s">
+      <c r="S1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="T1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="U1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="V1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="W1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="X1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="Y1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="Z1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="Y1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>54</v>
-      </c>
     </row>
-    <row r="2" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -760,112 +772,253 @@
         <v>5</v>
       </c>
       <c r="G2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="J2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="L2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="N2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="Q2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R2" s="3" t="s">
+      <c r="V2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="W2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T2" s="2" t="s">
+      <c r="X2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="V2" s="9" t="s">
+      <c r="Z2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="AA2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="AB2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="AC2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Z2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>18</v>
+      <c r="AD2" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>58</v>
+      <c r="G3" s="16">
+        <v>140</v>
+      </c>
+      <c r="H3" s="16">
+        <v>141</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="M3" s="8">
-        <v>129</v>
-      </c>
-      <c r="R3" s="5">
-        <v>44994.833333333336</v>
-      </c>
-      <c r="V3" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="X3" s="8" t="s">
-        <v>64</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="17">
+        <v>140</v>
+      </c>
+      <c r="T3" s="5">
+        <v>45004.833333333336</v>
+      </c>
+      <c r="X3" s="15"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/ExcelFile/TransportTemplate/TemplateImportTransport.xlsx
+++ b/src/ExcelFile/TransportTemplate/TemplateImportTransport.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>Loại Vận Đơn</t>
   </si>
@@ -179,27 +179,6 @@
     <t>GhiChuDP</t>
   </si>
   <si>
-    <t>FCL</t>
-  </si>
-  <si>
-    <t>CUS00001</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>CONT20</t>
-  </si>
-  <si>
-    <t>xuat</t>
-  </si>
-  <si>
-    <t>MEA</t>
-  </si>
-  <si>
-    <t>345345345989</t>
-  </si>
-  <si>
     <t>DiemDongHang</t>
   </si>
   <si>
@@ -222,13 +201,16 @@
   </si>
   <si>
     <t>Điểm Lấy Rỗng</t>
+  </si>
+  <si>
+    <t>Account</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,20 +243,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,6 +254,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -323,23 +299,17 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,405 +590,236 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD8"/>
+  <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10" style="8" customWidth="1"/>
-    <col min="24" max="24" width="22" style="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.85546875" style="8" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12" style="8" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10" style="7" customWidth="1"/>
+    <col min="25" max="25" width="22" style="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.85546875" style="7" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12" style="7" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="P2" s="12" t="s">
+      <c r="Q2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="R2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="S2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="X2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="Y2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Z2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="AA2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AB2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AC2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AD2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AE2" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="16">
-        <v>140</v>
-      </c>
-      <c r="H3" s="16">
-        <v>141</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="O3" s="17">
-        <v>140</v>
-      </c>
-      <c r="T3" s="5">
-        <v>45004.833333333336</v>
-      </c>
-      <c r="X3" s="15"/>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-      <c r="AB4"/>
-      <c r="AC4"/>
-      <c r="AD4"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-      <c r="AB5"/>
-      <c r="AC5"/>
-      <c r="AD5"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-      <c r="AB6"/>
-      <c r="AC6"/>
-      <c r="AD6"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7"/>
-      <c r="AA7"/>
-      <c r="AB7"/>
-      <c r="AC7"/>
-      <c r="AD7"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
-      <c r="AB8"/>
-      <c r="AC8"/>
-      <c r="AD8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/ExcelFile/TransportTemplate/TemplateImportTransport.xlsx
+++ b/src/ExcelFile/TransportTemplate/TemplateImportTransport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TMS_Client\src\ExcelFile\TransportTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>Loại Vận Đơn</t>
   </si>
@@ -80,15 +80,6 @@
     <t>Thời Gian Trả Hàng</t>
   </si>
   <si>
-    <t>Mã Nhà Cung Cấp</t>
-  </si>
-  <si>
-    <t>Mã Số Xe</t>
-  </si>
-  <si>
-    <t>Mã Tài Xế</t>
-  </si>
-  <si>
     <t>CONT NO</t>
   </si>
   <si>
@@ -156,15 +147,6 @@
   </si>
   <si>
     <t>GhiChu</t>
-  </si>
-  <si>
-    <t>DonViVanTai</t>
-  </si>
-  <si>
-    <t>MaSoXe</t>
-  </si>
-  <si>
-    <t>MaTaiXe</t>
   </si>
   <si>
     <t>Cont_No</t>
@@ -291,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -310,6 +292,15 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AB44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,7 +593,7 @@
     <col min="2" max="2" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" style="7" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.7109375" style="7" bestFit="1" customWidth="1"/>
@@ -613,7 +604,7 @@
     <col min="13" max="13" width="22.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.140625" style="7" customWidth="1"/>
     <col min="17" max="17" width="14.5703125" style="12" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.85546875" style="12" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.7109375" style="12" bestFit="1" customWidth="1"/>
@@ -622,111 +613,99 @@
     <col min="22" max="22" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10" style="7" customWidth="1"/>
-    <col min="25" max="25" width="22" style="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.85546875" style="7" customWidth="1"/>
-    <col min="27" max="27" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12" style="7" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12" style="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="H1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="K1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="L1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="9" t="s">
+      <c r="M1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="N1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="O1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="R1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="S1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="R1" s="9" t="s">
+      <c r="T1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="U1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="X1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="Y1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Z1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Z1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -737,7 +716,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>3</v>
@@ -749,10 +728,10 @@
         <v>5</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>6</v>
@@ -770,16 +749,16 @@
         <v>10</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="Q2" s="10" t="s">
         <v>11</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="S2" s="10" t="s">
         <v>12</v>
@@ -809,17 +788,1252 @@
         <v>20</v>
       </c>
       <c r="AB2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE2" s="8" t="s">
         <v>16</v>
       </c>
+    </row>
+    <row r="3" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+    </row>
+    <row r="4" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+    </row>
+    <row r="5" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+    </row>
+    <row r="6" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+    </row>
+    <row r="7" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+    </row>
+    <row r="8" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+    </row>
+    <row r="9" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+    </row>
+    <row r="10" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+    </row>
+    <row r="11" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+    </row>
+    <row r="12" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+    </row>
+    <row r="13" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+    </row>
+    <row r="14" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+    </row>
+    <row r="15" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+    </row>
+    <row r="16" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+    </row>
+    <row r="17" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+    </row>
+    <row r="18" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+    </row>
+    <row r="19" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+    </row>
+    <row r="20" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+    </row>
+    <row r="21" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+    </row>
+    <row r="22" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+    </row>
+    <row r="23" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+    </row>
+    <row r="24" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+    </row>
+    <row r="25" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+    </row>
+    <row r="26" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
+    </row>
+    <row r="27" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7"/>
+    </row>
+    <row r="28" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
+    </row>
+    <row r="29" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
+    </row>
+    <row r="30" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+    </row>
+    <row r="31" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+    </row>
+    <row r="32" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
+    </row>
+    <row r="33" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="7"/>
+    </row>
+    <row r="34" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="7"/>
+    </row>
+    <row r="35" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="7"/>
+      <c r="AA35" s="7"/>
+      <c r="AB35" s="7"/>
+    </row>
+    <row r="36" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="7"/>
+      <c r="AB36" s="7"/>
+    </row>
+    <row r="37" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="7"/>
+      <c r="AA37" s="7"/>
+      <c r="AB37" s="7"/>
+    </row>
+    <row r="38" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="7"/>
+    </row>
+    <row r="39" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="7"/>
+    </row>
+    <row r="40" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="7"/>
+      <c r="AB40" s="7"/>
+    </row>
+    <row r="41" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="7"/>
+      <c r="AB41" s="7"/>
+    </row>
+    <row r="42" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="7"/>
+      <c r="AB42" s="7"/>
+    </row>
+    <row r="43" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="7"/>
+      <c r="AA43" s="7"/>
+      <c r="AB43" s="7"/>
+    </row>
+    <row r="44" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+      <c r="X44" s="7"/>
+      <c r="Y44" s="7"/>
+      <c r="Z44" s="7"/>
+      <c r="AA44" s="7"/>
+      <c r="AB44" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/ExcelFile/TransportTemplate/TemplateImportTransport.xlsx
+++ b/src/ExcelFile/TransportTemplate/TemplateImportTransport.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TMS_Client\src\ExcelFile\TransportTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11280"/>
   </bookViews>
   <sheets>
     <sheet name="Vận Đơn" sheetId="6" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>Loại Vận Đơn</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t>Account</t>
+  </si>
+  <si>
+    <t>Reuse_Cont</t>
+  </si>
+  <si>
+    <t>Reuse Cont</t>
   </si>
 </sst>
 </file>
@@ -581,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB44"/>
+  <dimension ref="A1:AC44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,12 +620,13 @@
     <col min="23" max="23" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10" style="7" customWidth="1"/>
     <col min="25" max="25" width="12" style="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="23.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
@@ -696,16 +703,19 @@
         <v>41</v>
       </c>
       <c r="Z1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -782,16 +792,19 @@
         <v>18</v>
       </c>
       <c r="Z2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AB2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AC2" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -816,8 +829,9 @@
       <c r="Z3" s="14"/>
       <c r="AA3" s="14"/>
       <c r="AB3" s="14"/>
-    </row>
-    <row r="4" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC3" s="14"/>
+    </row>
+    <row r="4" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -842,8 +856,9 @@
       <c r="Z4" s="14"/>
       <c r="AA4" s="14"/>
       <c r="AB4" s="14"/>
-    </row>
-    <row r="5" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC4" s="14"/>
+    </row>
+    <row r="5" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -868,8 +883,9 @@
       <c r="Z5" s="14"/>
       <c r="AA5" s="14"/>
       <c r="AB5" s="14"/>
-    </row>
-    <row r="6" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC5" s="14"/>
+    </row>
+    <row r="6" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -894,8 +910,9 @@
       <c r="Z6" s="14"/>
       <c r="AA6" s="14"/>
       <c r="AB6" s="14"/>
-    </row>
-    <row r="7" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC6" s="14"/>
+    </row>
+    <row r="7" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -924,8 +941,9 @@
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
       <c r="AB7" s="7"/>
-    </row>
-    <row r="8" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC7" s="7"/>
+    </row>
+    <row r="8" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -954,8 +972,9 @@
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
-    </row>
-    <row r="9" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC8" s="7"/>
+    </row>
+    <row r="9" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -984,8 +1003,9 @@
       <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
-    </row>
-    <row r="10" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC9" s="7"/>
+    </row>
+    <row r="10" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1014,8 +1034,9 @@
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
-    </row>
-    <row r="11" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC10" s="7"/>
+    </row>
+    <row r="11" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1044,8 +1065,9 @@
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
       <c r="AB11" s="7"/>
-    </row>
-    <row r="12" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC11" s="7"/>
+    </row>
+    <row r="12" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1074,8 +1096,9 @@
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
-    </row>
-    <row r="13" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC12" s="7"/>
+    </row>
+    <row r="13" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1104,8 +1127,9 @@
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
       <c r="AB13" s="7"/>
-    </row>
-    <row r="14" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC13" s="7"/>
+    </row>
+    <row r="14" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1134,8 +1158,9 @@
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
       <c r="AB14" s="7"/>
-    </row>
-    <row r="15" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC14" s="7"/>
+    </row>
+    <row r="15" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1164,8 +1189,9 @@
       <c r="Z15" s="7"/>
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
-    </row>
-    <row r="16" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC15" s="7"/>
+    </row>
+    <row r="16" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1194,8 +1220,9 @@
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
       <c r="AB16" s="7"/>
-    </row>
-    <row r="17" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC16" s="7"/>
+    </row>
+    <row r="17" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1224,8 +1251,9 @@
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
-    </row>
-    <row r="18" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC17" s="7"/>
+    </row>
+    <row r="18" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1254,8 +1282,9 @@
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
       <c r="AB18" s="7"/>
-    </row>
-    <row r="19" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC18" s="7"/>
+    </row>
+    <row r="19" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1284,8 +1313,9 @@
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
-    </row>
-    <row r="20" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC19" s="7"/>
+    </row>
+    <row r="20" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1314,8 +1344,9 @@
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
       <c r="AB20" s="7"/>
-    </row>
-    <row r="21" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC20" s="7"/>
+    </row>
+    <row r="21" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1344,8 +1375,9 @@
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
       <c r="AB21" s="7"/>
-    </row>
-    <row r="22" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC21" s="7"/>
+    </row>
+    <row r="22" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1374,8 +1406,9 @@
       <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
       <c r="AB22" s="7"/>
-    </row>
-    <row r="23" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC22" s="7"/>
+    </row>
+    <row r="23" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1404,8 +1437,9 @@
       <c r="Z23" s="7"/>
       <c r="AA23" s="7"/>
       <c r="AB23" s="7"/>
-    </row>
-    <row r="24" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC23" s="7"/>
+    </row>
+    <row r="24" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1434,8 +1468,9 @@
       <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
       <c r="AB24" s="7"/>
-    </row>
-    <row r="25" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC24" s="7"/>
+    </row>
+    <row r="25" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1464,8 +1499,9 @@
       <c r="Z25" s="7"/>
       <c r="AA25" s="7"/>
       <c r="AB25" s="7"/>
-    </row>
-    <row r="26" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC25" s="7"/>
+    </row>
+    <row r="26" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1494,8 +1530,9 @@
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
       <c r="AB26" s="7"/>
-    </row>
-    <row r="27" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC26" s="7"/>
+    </row>
+    <row r="27" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1524,8 +1561,9 @@
       <c r="Z27" s="7"/>
       <c r="AA27" s="7"/>
       <c r="AB27" s="7"/>
-    </row>
-    <row r="28" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC27" s="7"/>
+    </row>
+    <row r="28" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1554,8 +1592,9 @@
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
       <c r="AB28" s="7"/>
-    </row>
-    <row r="29" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC28" s="7"/>
+    </row>
+    <row r="29" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1584,8 +1623,9 @@
       <c r="Z29" s="7"/>
       <c r="AA29" s="7"/>
       <c r="AB29" s="7"/>
-    </row>
-    <row r="30" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC29" s="7"/>
+    </row>
+    <row r="30" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1614,8 +1654,9 @@
       <c r="Z30" s="7"/>
       <c r="AA30" s="7"/>
       <c r="AB30" s="7"/>
-    </row>
-    <row r="31" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC30" s="7"/>
+    </row>
+    <row r="31" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1644,8 +1685,9 @@
       <c r="Z31" s="7"/>
       <c r="AA31" s="7"/>
       <c r="AB31" s="7"/>
-    </row>
-    <row r="32" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC31" s="7"/>
+    </row>
+    <row r="32" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1674,8 +1716,9 @@
       <c r="Z32" s="7"/>
       <c r="AA32" s="7"/>
       <c r="AB32" s="7"/>
-    </row>
-    <row r="33" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC32" s="7"/>
+    </row>
+    <row r="33" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1704,8 +1747,9 @@
       <c r="Z33" s="7"/>
       <c r="AA33" s="7"/>
       <c r="AB33" s="7"/>
-    </row>
-    <row r="34" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC33" s="7"/>
+    </row>
+    <row r="34" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1734,8 +1778,9 @@
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
       <c r="AB34" s="7"/>
-    </row>
-    <row r="35" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC34" s="7"/>
+    </row>
+    <row r="35" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1764,8 +1809,9 @@
       <c r="Z35" s="7"/>
       <c r="AA35" s="7"/>
       <c r="AB35" s="7"/>
-    </row>
-    <row r="36" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC35" s="7"/>
+    </row>
+    <row r="36" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1794,8 +1840,9 @@
       <c r="Z36" s="7"/>
       <c r="AA36" s="7"/>
       <c r="AB36" s="7"/>
-    </row>
-    <row r="37" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC36" s="7"/>
+    </row>
+    <row r="37" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -1824,8 +1871,9 @@
       <c r="Z37" s="7"/>
       <c r="AA37" s="7"/>
       <c r="AB37" s="7"/>
-    </row>
-    <row r="38" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC37" s="7"/>
+    </row>
+    <row r="38" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -1854,8 +1902,9 @@
       <c r="Z38" s="7"/>
       <c r="AA38" s="7"/>
       <c r="AB38" s="7"/>
-    </row>
-    <row r="39" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC38" s="7"/>
+    </row>
+    <row r="39" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -1884,8 +1933,9 @@
       <c r="Z39" s="7"/>
       <c r="AA39" s="7"/>
       <c r="AB39" s="7"/>
-    </row>
-    <row r="40" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC39" s="7"/>
+    </row>
+    <row r="40" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -1914,8 +1964,9 @@
       <c r="Z40" s="7"/>
       <c r="AA40" s="7"/>
       <c r="AB40" s="7"/>
-    </row>
-    <row r="41" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC40" s="7"/>
+    </row>
+    <row r="41" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -1944,8 +1995,9 @@
       <c r="Z41" s="7"/>
       <c r="AA41" s="7"/>
       <c r="AB41" s="7"/>
-    </row>
-    <row r="42" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC41" s="7"/>
+    </row>
+    <row r="42" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -1974,8 +2026,9 @@
       <c r="Z42" s="7"/>
       <c r="AA42" s="7"/>
       <c r="AB42" s="7"/>
-    </row>
-    <row r="43" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC42" s="7"/>
+    </row>
+    <row r="43" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -2004,8 +2057,9 @@
       <c r="Z43" s="7"/>
       <c r="AA43" s="7"/>
       <c r="AB43" s="7"/>
-    </row>
-    <row r="44" spans="1:28" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC43" s="7"/>
+    </row>
+    <row r="44" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -2034,6 +2088,7 @@
       <c r="Z44" s="7"/>
       <c r="AA44" s="7"/>
       <c r="AB44" s="7"/>
+      <c r="AC44" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/ExcelFile/TransportTemplate/TemplateImportTransport.xlsx
+++ b/src/ExcelFile/TransportTemplate/TemplateImportTransport.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>Loại Vận Đơn</t>
   </si>
@@ -192,6 +192,12 @@
   </si>
   <si>
     <t>Reuse Cont</t>
+  </si>
+  <si>
+    <t>NCC</t>
+  </si>
+  <si>
+    <t>Đơn Vị Vận Tải</t>
   </si>
 </sst>
 </file>
@@ -279,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -307,6 +313,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC44"/>
+  <dimension ref="A1:AD44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA16" sqref="AA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,9 +632,10 @@
     <col min="27" max="27" width="23.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
@@ -714,8 +723,11 @@
       <c r="AC1" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD1" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -803,8 +815,11 @@
       <c r="AC2" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD2" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -831,7 +846,7 @@
       <c r="AB3" s="14"/>
       <c r="AC3" s="14"/>
     </row>
-    <row r="4" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -858,7 +873,7 @@
       <c r="AB4" s="14"/>
       <c r="AC4" s="14"/>
     </row>
-    <row r="5" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -885,7 +900,7 @@
       <c r="AB5" s="14"/>
       <c r="AC5" s="14"/>
     </row>
-    <row r="6" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -912,7 +927,7 @@
       <c r="AB6" s="14"/>
       <c r="AC6" s="14"/>
     </row>
-    <row r="7" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -943,7 +958,7 @@
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
     </row>
-    <row r="8" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -974,7 +989,7 @@
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
     </row>
-    <row r="9" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1005,7 +1020,7 @@
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
     </row>
-    <row r="10" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1036,7 +1051,7 @@
       <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
     </row>
-    <row r="11" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1067,7 +1082,7 @@
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
     </row>
-    <row r="12" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1098,7 +1113,7 @@
       <c r="AB12" s="7"/>
       <c r="AC12" s="7"/>
     </row>
-    <row r="13" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1129,7 +1144,7 @@
       <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
     </row>
-    <row r="14" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1160,7 +1175,7 @@
       <c r="AB14" s="7"/>
       <c r="AC14" s="7"/>
     </row>
-    <row r="15" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1191,7 +1206,7 @@
       <c r="AB15" s="7"/>
       <c r="AC15" s="7"/>
     </row>
-    <row r="16" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
